--- a/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
+++ b/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\mapping\AZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65805E25-629A-4A2B-9FD5-62EA55CAE1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122564CA-D28C-4D50-A957-3A15D9A658FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="235">
   <si>
     <t>state</t>
   </si>
@@ -718,6 +718,18 @@
   </si>
   <si>
     <t>Please confirm</t>
+  </si>
+  <si>
+    <t>Use combined with source to do mapping</t>
+  </si>
+  <si>
+    <t>State does not consider spills above the shear valve to be UST-related; this Cause is usually a delivery issue</t>
+  </si>
+  <si>
+    <t>This is an older term that was used around the time of, or perhaps even before, Oxygenated Gasoline. May be either MTBE or ethanol so "Other" is best mapping.</t>
+  </si>
+  <si>
+    <t>Older term no longer used; probably MTBE but could be ethanol</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,8 +765,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -775,7 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1566,7 @@
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
@@ -1605,6 +1623,9 @@
       <c r="F2" t="s">
         <v>156</v>
       </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
       <c r="N2">
         <v>145</v>
       </c>
@@ -1625,6 +1646,9 @@
       <c r="F3" t="s">
         <v>82</v>
       </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1640,10 +1664,10 @@
         <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>230</v>
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1662,6 +1686,9 @@
       <c r="F5" t="s">
         <v>152</v>
       </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1679,6 +1706,9 @@
       <c r="F6" t="s">
         <v>113</v>
       </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1696,6 +1726,9 @@
       <c r="F7" t="s">
         <v>113</v>
       </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1713,8 +1746,8 @@
       <c r="F8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G8" t="s">
-        <v>230</v>
+      <c r="J8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1733,6 +1766,9 @@
       <c r="F9" t="s">
         <v>124</v>
       </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1750,6 +1786,9 @@
       <c r="F10" t="s">
         <v>163</v>
       </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1764,8 +1803,14 @@
       <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>126</v>
+      <c r="F11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1784,6 +1829,9 @@
       <c r="F12" t="s">
         <v>127</v>
       </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1801,6 +1849,9 @@
       <c r="F13" t="s">
         <v>126</v>
       </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1818,6 +1869,9 @@
       <c r="F14" t="s">
         <v>126</v>
       </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1835,6 +1889,9 @@
       <c r="F15" t="s">
         <v>86</v>
       </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1852,8 +1909,11 @@
       <c r="F16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1869,8 +1929,11 @@
       <c r="F17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1886,8 +1949,11 @@
       <c r="F18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1903,8 +1969,11 @@
       <c r="F19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1920,8 +1989,11 @@
       <c r="F20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1937,8 +2009,11 @@
       <c r="F21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1951,14 +2026,14 @@
       <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -1974,8 +2049,11 @@
       <c r="F23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1991,8 +2069,11 @@
       <c r="F24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -2008,8 +2089,11 @@
       <c r="F25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2023,13 +2107,16 @@
         <v>130</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -2045,8 +2132,11 @@
       <c r="F27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -2062,8 +2152,11 @@
       <c r="F28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -2079,8 +2172,11 @@
       <c r="F29" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -2096,8 +2192,11 @@
       <c r="F30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2113,8 +2212,11 @@
       <c r="F31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -2130,8 +2232,11 @@
       <c r="F32" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -2147,8 +2252,11 @@
       <c r="F33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -2164,8 +2272,11 @@
       <c r="F34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -2181,8 +2292,11 @@
       <c r="F35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2193,7 +2307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -2204,7 +2318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -2215,7 +2329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -2226,7 +2340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -2237,7 +2351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2248,7 +2362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2259,7 +2373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2270,7 +2384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2281,7 +2395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2292,7 +2406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2303,7 +2417,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -2314,7 +2428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2368,7 +2482,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2533,7 @@
       <c r="E2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
       <c r="N2">
@@ -2499,7 +2613,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,6 +2668,9 @@
       <c r="F2" t="s">
         <v>171</v>
       </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
       <c r="N2">
         <v>143</v>
       </c>
@@ -2565,11 +2682,17 @@
       <c r="E3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>230</v>
+      </c>
+      <c r="I3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2582,6 +2705,9 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2593,6 +2719,9 @@
       <c r="F5" t="s">
         <v>192</v>
       </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2607,6 +2736,9 @@
       <c r="G6" t="s">
         <v>230</v>
       </c>
+      <c r="I6" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2621,6 +2753,9 @@
       <c r="G7" t="s">
         <v>230</v>
       </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2635,6 +2770,9 @@
       <c r="G8" t="s">
         <v>230</v>
       </c>
+      <c r="I8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2649,6 +2787,9 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
+      <c r="I9" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2663,6 +2804,9 @@
       <c r="G10" t="s">
         <v>230</v>
       </c>
+      <c r="I10" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2674,6 +2818,9 @@
       <c r="F11" t="s">
         <v>74</v>
       </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2684,6 +2831,9 @@
       </c>
       <c r="F12" t="s">
         <v>189</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">

--- a/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
+++ b/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\mapping\AZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122564CA-D28C-4D50-A957-3A15D9A658FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607FE6CB-3DAB-43BB-9D1B-FD6EE1125BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27615" yWindow="630" windowWidth="26685" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="233">
   <si>
     <t>state</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Substance</t>
   </si>
   <si>
-    <t>Fed. Reg.</t>
-  </si>
-  <si>
     <t>Aviation</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
   </si>
   <si>
     <t>100% biodiesel (B100, not federally regulated)</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>E-85</t>
@@ -1096,132 +1090,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1443,103 +1439,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1551,925 +1549,771 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="128.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
       <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
         <v>152</v>
       </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
-      </c>
-      <c r="J23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
-      </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="J34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" t="s">
-        <v>155</v>
-      </c>
-      <c r="J35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2479,127 +2323,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
       <c r="E2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
       <c r="E3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>165</v>
       </c>
-      <c r="F3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>167</v>
+      <c r="D4" t="s">
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
       </c>
       <c r="E5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>167</v>
       </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>169</v>
+      <c r="D6" t="s">
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2610,265 +2454,265 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.42578125" customWidth="1"/>
-    <col min="2" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>179</v>
       </c>
-      <c r="G3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>181</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>183</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>187</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
       <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
       <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>191</v>
       </c>
-      <c r="F12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2878,7 +2722,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2888,205 +2732,205 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.42578125" customWidth="1"/>
-    <col min="2" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>202</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>204</v>
+      <c r="D9" t="s">
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>213</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>214</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" t="s">
         <v>215</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>216</v>
       </c>
-      <c r="F11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>206</v>
       </c>
-      <c r="E12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3096,57 +2940,57 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -3156,7 +3000,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
+++ b/ust/python/exports/mapping/AZ/AZ_Releases_mapping_20240724192944.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\mapping\AZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607FE6CB-3DAB-43BB-9D1B-FD6EE1125BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2B1C1-B7E3-4476-BC7F-9C319CE60969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="630" windowWidth="26685" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="315" windowWidth="26685" windowHeight="13815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -1090,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,11 +1134,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1148,76 +1148,76 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1439,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1483,11 +1483,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1497,11 +1497,11 @@
       <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1512,32 +1512,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1549,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1597,11 +1597,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1617,11 +1617,11 @@
       <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2323,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,7 +2341,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
@@ -2366,11 +2366,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -2380,11 +2380,11 @@
       <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>74</v>
       </c>
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2750,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
@@ -2775,11 +2775,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -2789,11 +2789,11 @@
       <c r="E2" t="s">
         <v>199</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>213</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -2903,22 +2903,22 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
